--- a/biology/Médecine/François_Viault/François_Viault.xlsx
+++ b/biology/Médecine/François_Viault/François_Viault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Viault</t>
+          <t>François_Viault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Gilbert Viault (Saint-Aulaye, 2 octobre 1849-Saint-Michel-Léparon, 19 octobre 1918) est un médecin physiologiste français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Viault</t>
+          <t>François_Viault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François Viault natif d’une bonne famille, fait ses études à Angoulême et Bordeaux, avant d’aller étudier la médecine et les sciences naturelles à Paris. Sa carrière le mène à Dijon, et Nancy, avant un retour à Bordeaux. Mais il reste attaché à ses origines, puisqu’il devient maire de Saint-Aulaye en 1880, quatre ans après son doctorat de médecine. Professeur d'anatomie générale et d'histologie à la faculté de médecine de Bordeaux, il est chargé en 1889 par le ministère de l'Instruction publique d'une mission au Pérou. Il part ainsi de Saint-Nazaire en août et arrive à La Guaira le 26 après s'être arrêté en Guadeloupe et en Martinique. 
 En train, il gagne Caracas puis le 30 août est à Panama d'où il joint Guayaquil (4 septembre) puis Callao (8 septembre). Le 15 septembre, il visite Lima et, le 3 octobre, part dans la sierra pour y étudier les effets de l'altitude sur le corps humain et sur les animaux. Il remonte ainsi en train les gorges du Rimac jusqu'à Casapalca puis continue à cheval, la voie s'étant effondrée, pour atteindre la hacienda de Morococha à 4 392 m d'altitude. Il y demeure quinze jours. 
 C'est à l'instigation de Paul Bert, qu'il va au Pérou pour vérifier sur place l'hypothèse de l'hyperglobulie de l'altitude. Il prépare ensuite à La Oroya (28 octobre) son voyage vers la Montaña. Il suit la vallée du Tacma et à La Merced est accueilli par un Français qui n'a pas vu de compatriote depuis cinq ans. Il revient à Lima le 15 novembre et reprend le bateau le 20 pour Quito et Guayaquil. Il est de retour en France en décembre 1889.
-Il travaille aussi sur la tuberculose et de nombreuses autres maladies. Il travaille aussi sur Oïdium du chêne qui ravage les forêts. Il a travaillé aussi sur la vigne et le vin, à l’époque du phylloxéra. Il décède des suites de la grippe espagnole dans son château de Saint-Sicaire, dans la commune de Saint-Michel-Léparon en 1918[1],[2],[3]. 
+Il travaille aussi sur la tuberculose et de nombreuses autres maladies. Il travaille aussi sur Oïdium du chêne qui ravage les forêts. Il a travaillé aussi sur la vigne et le vin, à l’époque du phylloxéra. Il décède des suites de la grippe espagnole dans son château de Saint-Sicaire, dans la commune de Saint-Michel-Léparon en 1918. 
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Viault</t>
+          <t>François_Viault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude critique sur la transfusion du sang et sur quelques injections intra-veineuses, 1875
 Recherches histologiques sur la structure des centres nerveux des plagiostomes, 1877
